--- a/ver.xlsx
+++ b/ver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus.gomez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoon.manay\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7B29A5-66A1-4EC8-9680-5494C48E0E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95381DC8-26C7-450E-A775-478886AEB3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB804C75-1394-4E6F-A71A-67B4FB0B2765}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB804C75-1394-4E6F-A71A-67B4FB0B2765}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -647,9 +647,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -687,7 +687,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -793,7 +793,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -935,7 +935,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA22403-D564-4556-8F07-0EE1D0D886F3}">
   <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C67" s="3" t="str">
         <f>VLOOKUP(B67,ES!$B$3:$D$85,2,FALSE)</f>
-        <v>RIS 5</v>
+        <v>RIS 3</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2563,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D9C2A0-9CF3-4BEB-B5F1-47E4A2D215A2}">
   <dimension ref="B1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,7 +3451,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D81" s="19">
         <v>27726</v>
